--- a/dataset_analysis/不同设备的像素-厘米拟合.xlsx
+++ b/dataset_analysis/不同设备的像素-厘米拟合.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\其他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习资料\reference\dataset_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FA68F-599A-4D00-9837-B856C7F2107A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C22E41-2B2F-422A-8FB3-B37814F81C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,11 +663,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -675,8 +672,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1034,19 +1034,19 @@
       <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -1055,62 +1055,62 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="3">
@@ -1119,62 +1119,62 @@
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
@@ -1183,60 +1183,60 @@
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1">
         <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="3">
@@ -1245,62 +1245,62 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3">
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="1">
@@ -1309,15 +1309,15 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1">
         <v>2</v>
       </c>
@@ -1326,8 +1326,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1">
         <v>3</v>
       </c>
@@ -1336,8 +1336,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1">
         <v>4</v>
       </c>
@@ -1346,8 +1346,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="3">
@@ -1358,8 +1358,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3">
         <v>2</v>
       </c>
@@ -1368,8 +1368,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="3">
         <v>3</v>
       </c>
@@ -1378,8 +1378,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3">
         <v>4</v>
       </c>
@@ -1388,10 +1388,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="1">
@@ -1402,8 +1402,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1">
         <v>2</v>
       </c>
@@ -1412,8 +1412,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1">
         <v>3</v>
       </c>
@@ -1422,8 +1422,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1">
         <v>4</v>
       </c>
@@ -1432,8 +1432,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3">
@@ -1444,8 +1444,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="3">
         <v>2</v>
       </c>
@@ -1454,8 +1454,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3">
         <v>3</v>
       </c>
@@ -1464,8 +1464,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3">
         <v>4</v>
       </c>
@@ -1474,10 +1474,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="1">
@@ -1488,8 +1488,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1">
         <v>2</v>
       </c>
@@ -1498,8 +1498,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="9"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1">
         <v>3</v>
       </c>
@@ -1508,8 +1508,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1">
         <v>4</v>
       </c>
@@ -1518,8 +1518,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="3">
@@ -1530,8 +1530,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="3">
         <v>2</v>
       </c>
@@ -1540,8 +1540,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3">
         <v>3</v>
       </c>
@@ -1550,8 +1550,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="3">
         <v>4</v>
       </c>
@@ -1560,10 +1560,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C42" s="1">
@@ -1574,8 +1574,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="1">
         <v>2</v>
       </c>
@@ -1584,8 +1584,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="9"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="1">
         <v>3</v>
       </c>
@@ -1594,8 +1594,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
-      <c r="B45" s="9"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="1">
         <v>4</v>
       </c>
@@ -1604,8 +1604,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="7"/>
+      <c r="B46" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="3">
@@ -1616,8 +1616,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="3">
         <v>2</v>
       </c>
@@ -1626,8 +1626,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="10"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3">
         <v>3</v>
       </c>
@@ -1636,8 +1636,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="10"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="3">
         <v>4</v>
       </c>
@@ -1646,10 +1646,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C50" s="1">
@@ -1660,8 +1660,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="9"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="1">
         <v>2</v>
       </c>
@@ -1670,8 +1670,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="1">
         <v>3</v>
       </c>
@@ -1680,8 +1680,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
-      <c r="B53" s="9"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="1">
         <v>4</v>
       </c>
@@ -1690,8 +1690,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="7"/>
+      <c r="B54" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="3">
@@ -1702,8 +1702,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="10"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="3">
         <v>2</v>
       </c>
@@ -1712,8 +1712,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="10"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3">
         <v>3</v>
       </c>
@@ -1722,8 +1722,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="10"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="3">
         <v>4</v>
       </c>
@@ -1732,10 +1732,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="1">
@@ -1746,8 +1746,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="9"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1">
         <v>2</v>
       </c>
@@ -1756,8 +1756,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="9"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1">
         <v>3</v>
       </c>
@@ -1766,8 +1766,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1">
         <v>4</v>
       </c>
@@ -1776,8 +1776,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="7"/>
+      <c r="B62" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C62" s="3">
@@ -1788,8 +1788,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="10"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="3">
         <v>2</v>
       </c>
@@ -1798,8 +1798,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="3">
         <v>3</v>
       </c>
@@ -1808,8 +1808,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
-      <c r="B65" s="10"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="3">
         <v>4</v>
       </c>
@@ -1818,10 +1818,10 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="1">
@@ -1832,8 +1832,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="9"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="1">
         <v>2</v>
       </c>
@@ -1842,8 +1842,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="11"/>
-      <c r="B68" s="9"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1">
         <v>3</v>
       </c>
@@ -1852,8 +1852,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="9"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="1">
         <v>4</v>
       </c>
@@ -1862,8 +1862,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="10" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="3">
@@ -1874,8 +1874,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="10"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="3">
         <v>2</v>
       </c>
@@ -1884,8 +1884,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="10"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="3">
         <v>3</v>
       </c>
@@ -1894,8 +1894,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="10"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="3">
         <v>4</v>
       </c>
@@ -1904,10 +1904,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C74" s="1">
@@ -1918,8 +1918,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="9"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="1">
         <v>2</v>
       </c>
@@ -1928,8 +1928,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="9"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="1">
         <v>3</v>
       </c>
@@ -1938,8 +1938,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="9"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="1">
         <v>4</v>
       </c>
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="B78" s="10" t="s">
+      <c r="A78" s="7"/>
+      <c r="B78" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="3">
@@ -1960,8 +1960,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="10"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="3">
         <v>2</v>
       </c>
@@ -1970,8 +1970,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="3">
         <v>3</v>
       </c>
@@ -1980,8 +1980,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="3">
         <v>4</v>
       </c>
@@ -1990,10 +1990,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C82" s="1">
@@ -2004,8 +2004,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="1">
         <v>2</v>
       </c>
@@ -2014,8 +2014,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="1">
         <v>3</v>
       </c>
@@ -2024,8 +2024,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="9"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="1">
         <v>4</v>
       </c>
@@ -2034,8 +2034,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="7"/>
+      <c r="B86" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C86" s="3">
@@ -2046,8 +2046,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="3">
         <v>2</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="10"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="3">
         <v>3</v>
       </c>
@@ -2066,8 +2066,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="10"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="3">
         <v>4</v>
       </c>
@@ -2076,10 +2076,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="1">
@@ -2090,8 +2090,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="9"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="1">
         <v>2</v>
       </c>
@@ -2100,8 +2100,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="9"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="1">
         <v>3</v>
       </c>
@@ -2110,8 +2110,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
-      <c r="B93" s="9"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="1">
         <v>4</v>
       </c>
@@ -2120,8 +2120,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
-      <c r="B94" s="10" t="s">
+      <c r="A94" s="7"/>
+      <c r="B94" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C94" s="3">
@@ -2132,8 +2132,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="10"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="3">
         <v>2</v>
       </c>
@@ -2142,8 +2142,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="10"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="3">
         <v>3</v>
       </c>
@@ -2152,8 +2152,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="10"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="3">
         <v>4</v>
       </c>
@@ -2162,10 +2162,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="1">
@@ -2176,8 +2176,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="1">
         <v>2</v>
       </c>
@@ -2186,8 +2186,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="1">
         <v>3</v>
       </c>
@@ -2196,8 +2196,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="9"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="1">
         <v>4</v>
       </c>
@@ -2206,8 +2206,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
-      <c r="B102" s="10" t="s">
+      <c r="A102" s="7"/>
+      <c r="B102" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="3">
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="10"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="9"/>
       <c r="C103" s="3">
         <v>2</v>
       </c>
@@ -2228,8 +2228,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="9"/>
       <c r="C104" s="3">
         <v>3</v>
       </c>
@@ -2238,8 +2238,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
-      <c r="B105" s="10"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="3">
         <v>4</v>
       </c>
@@ -2248,10 +2248,10 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="1">
@@ -2262,8 +2262,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="9"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="1">
         <v>2</v>
       </c>
@@ -2272,8 +2272,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="9"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="1">
         <v>3</v>
       </c>
@@ -2282,8 +2282,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="9"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="1">
         <v>4</v>
       </c>
@@ -2292,8 +2292,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="7"/>
+      <c r="B110" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C110" s="3">
@@ -2304,8 +2304,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="10"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="3">
         <v>2</v>
       </c>
@@ -2314,8 +2314,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="10"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="3">
         <v>3</v>
       </c>
@@ -2324,8 +2324,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
-      <c r="B113" s="10"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="3">
         <v>4</v>
       </c>
@@ -2334,10 +2334,10 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C114" s="1">
@@ -2348,8 +2348,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="1">
         <v>2</v>
       </c>
@@ -2358,8 +2358,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="1">
         <v>3</v>
       </c>
@@ -2368,8 +2368,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
-      <c r="B117" s="9"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="1">
         <v>4</v>
       </c>
@@ -2378,8 +2378,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
-      <c r="B118" s="10" t="s">
+      <c r="A118" s="7"/>
+      <c r="B118" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C118" s="3">
@@ -2390,8 +2390,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
-      <c r="B119" s="10"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="3">
         <v>2</v>
       </c>
@@ -2400,8 +2400,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="10"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="3">
         <v>3</v>
       </c>
@@ -2410,8 +2410,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="10"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="3">
         <v>4</v>
       </c>
@@ -2445,40 +2445,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A114:A121"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="A82:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="B94:B97"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="F2:J18"/>
     <mergeCell ref="B98:B101"/>
@@ -2492,6 +2458,40 @@
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="A18:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
